--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1316174.846961946</v>
+        <v>1408462.206579772</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7798524.267992096</v>
+        <v>6654055.582836241</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1928039.641030761</v>
+        <v>806345.882709509</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10604035.03148276</v>
+        <v>11039457.79593271</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>331.8582765938459</v>
       </c>
       <c r="C2" t="n">
-        <v>62.35832214707627</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>40.82828451795876</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>164.1192903852761</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>250.1325537001782</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>200.2931783177761</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>162.8751464280498</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>149.8794763036715</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>85.26595219976636</v>
       </c>
       <c r="H8" t="n">
-        <v>202.0588053809472</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>7.144861365175243</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>133.4548648132222</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>201.6086852141638</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>196.9899243971807</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1625,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.38892166358529</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>95.71150871665532</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.87956703897748</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2050,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>69.42562816460828</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2299,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X22" t="n">
-        <v>142.3844270995955</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>17.15794421524345</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>196.9899243971802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>176.7697821123584</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>149.2419515106229</v>
       </c>
     </row>
     <row r="29">
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>11.61592966729513</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2965,10 +2967,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,13 +3195,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -3238,7 +3240,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>150.2062474346973</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>236.9563629512573</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>71.6703719699175</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>72.2013892671963</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>136.9874663242783</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3800,13 +3802,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>113.0483809608172</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3952,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>13.42874471570741</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3986,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>114.5505532674854</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873203</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292541</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881755</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851108</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247718</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734093657</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414545</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4138,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>129.3290918536896</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>144.7550149143207</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983792</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004706</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>189.7690253314418</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>61.83721437613772</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1099.346874905661</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1859.412473230863</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.946714969783</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.946714969783</v>
+        <v>2289.351746278601</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942404</v>
+        <v>532.9350040648279</v>
       </c>
       <c r="C4" t="n">
-        <v>381.6292235663335</v>
+        <v>532.9350040648279</v>
       </c>
       <c r="D4" t="n">
-        <v>231.5125841539978</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="E4" t="n">
-        <v>231.5125841539978</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="F4" t="n">
-        <v>231.5125841539978</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G4" t="n">
-        <v>231.5125841539978</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H4" t="n">
-        <v>231.5125841539978</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>95.18367325264603</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4512,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942404</v>
+        <v>532.9350040648279</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1289.017815868391</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C5" t="n">
-        <v>1289.017815868391</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D5" t="n">
-        <v>1289.017815868391</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473041</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.483574129471</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.483574129471</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1289.017815868391</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1289.017815868391</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="6">
@@ -4635,28 +4637,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942406</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C7" t="n">
-        <v>386.0450565669175</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9284171545818</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545818</v>
+        <v>352.2263397260238</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545818</v>
+        <v>205.3363922281134</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>205.3363922281134</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942406</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942406</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.68376869814</v>
+        <v>1448.576038264086</v>
       </c>
       <c r="C8" t="n">
-        <v>1194.68376869814</v>
+        <v>1448.576038264086</v>
       </c>
       <c r="D8" t="n">
-        <v>836.4180700913896</v>
+        <v>1090.310339657335</v>
       </c>
       <c r="E8" t="n">
-        <v>836.4180700913896</v>
+        <v>704.5220870590908</v>
       </c>
       <c r="F8" t="n">
-        <v>829.4725693421861</v>
+        <v>293.5361822694833</v>
       </c>
       <c r="G8" t="n">
-        <v>411.508761240373</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205146</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935032</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673952</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.68376869814</v>
+        <v>1448.576038264086</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.1897464970885</v>
+        <v>188.745875571094</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150934</v>
+        <v>188.745875571094</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>188.745875571094</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>188.745875571094</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406187</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406187</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406187</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406187</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406187</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406187</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406187</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.1897464970885</v>
+        <v>188.745875571094</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2005.586939522201</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>66.5121164321834</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>3121.960685029207</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3121.960685029207</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>2769.192029759092</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>2395.726271498012</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2005.586939522201</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>192.8867116300491</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1892.184635123826</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>1523.222118183415</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1164.956419576664</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>779.1681669784198</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>66.5121164321834</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912079</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810543</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>3295.920042151003</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>3295.920042151003</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>3042.389565424839</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3042.389565424839</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3042.389565424839</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>2668.92380716376</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2278.784475187948</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>506.832110204571</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959802</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>163.837793613838</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>688.4805750348107</v>
       </c>
     </row>
     <row r="17">
@@ -5489,55 +5491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M17" t="n">
-        <v>2016.310259422546</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N17" t="n">
-        <v>2996.062531649192</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.39320666029</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
         <v>4667.761053946815</v>
@@ -5549,16 +5551,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5665,10 +5667,10 @@
         <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5698,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1886.216568968736</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1664.449953538262</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.240599230347</v>
+        <v>1375.347086663905</v>
       </c>
       <c r="V19" t="n">
-        <v>1667.240599230347</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="W19" t="n">
-        <v>1377.823429193387</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="X19" t="n">
-        <v>1149.833878295369</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="Y19" t="n">
-        <v>1149.833878295369</v>
+        <v>1120.662598458018</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
@@ -5747,55 +5749,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5862,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5902,10 +5904,10 @@
         <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5947,7 +5949,7 @@
         <v>1956.343466104704</v>
       </c>
       <c r="W22" t="n">
-        <v>1666.926296067743</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X22" t="n">
         <v>1523.103642431788</v>
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O23" t="n">
-        <v>3517.878731871643</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4231.233819318589</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4689.712021827577</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6087,7 +6089,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,22 +6098,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3014.594967945065</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="C25" t="n">
-        <v>3014.594967945065</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="D25" t="n">
-        <v>3014.594967945065</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="E25" t="n">
-        <v>3014.594967945065</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="F25" t="n">
-        <v>3014.594967945065</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="G25" t="n">
-        <v>3014.594967945065</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="H25" t="n">
-        <v>3014.594967945065</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>4496.535381004074</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>4274.7687655736</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>3985.665898699243</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>3730.981410493357</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>3441.564240456396</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>3213.574689558379</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y25" t="n">
-        <v>3014.594967945065</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="26">
@@ -6203,52 +6205,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>786.6724891157196</v>
+        <v>750.1800661608906</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364128</v>
+        <v>1614.698881814245</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193957</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
         <v>4667.761053946815</v>
@@ -6257,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6309,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6321,16 +6323,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6376,10 +6378,10 @@
         <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6406,25 +6408,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V28" t="n">
-        <v>1701.658977898817</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W28" t="n">
-        <v>1701.658977898817</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.103642431788</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="Y28" t="n">
         <v>1302.311063288258</v>
@@ -6440,22 +6442,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839441</v>
@@ -6464,16 +6466,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6494,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6543,10 +6545,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>877.1197344942216</v>
+        <v>963.4596778203087</v>
       </c>
       <c r="C31" t="n">
-        <v>708.1835515663147</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D31" t="n">
-        <v>558.0669121539789</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839441</v>
@@ -6655,16 +6657,16 @@
         <v>1956.343466104704</v>
       </c>
       <c r="V31" t="n">
-        <v>1796.967499402969</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W31" t="n">
-        <v>1507.550329366009</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X31" t="n">
-        <v>1279.560778467991</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y31" t="n">
-        <v>1058.768199324461</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3942.370854773035</v>
+        <v>805.0466682503443</v>
       </c>
       <c r="C34" t="n">
-        <v>3773.434671845128</v>
+        <v>636.1104853224374</v>
       </c>
       <c r="D34" t="n">
-        <v>3623.318032432792</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="E34" t="n">
-        <v>3475.404938850399</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F34" t="n">
-        <v>3328.514991352489</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G34" t="n">
-        <v>3160.812154727208</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945065</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>4496.535381004074</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>4344.811898746804</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U34" t="n">
-        <v>4344.811898746804</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V34" t="n">
-        <v>4344.811898746804</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="W34" t="n">
-        <v>4344.811898746804</v>
+        <v>1435.477263122131</v>
       </c>
       <c r="X34" t="n">
-        <v>4344.811898746804</v>
+        <v>1207.487712224114</v>
       </c>
       <c r="Y34" t="n">
-        <v>4124.019319603274</v>
+        <v>986.695133080584</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O35" t="n">
-        <v>3517.878731871643</v>
+        <v>3876.027181978647</v>
       </c>
       <c r="P35" t="n">
-        <v>4231.233819318589</v>
+        <v>4270.801548335825</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188665</v>
@@ -6968,19 +6970,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -7017,10 +7019,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1120.662598458018</v>
+        <v>3603.519469305086</v>
       </c>
       <c r="C37" t="n">
-        <v>951.7264155301116</v>
+        <v>3434.583286377179</v>
       </c>
       <c r="D37" t="n">
-        <v>801.6097761177758</v>
+        <v>3284.466646964843</v>
       </c>
       <c r="E37" t="n">
-        <v>653.6966825353827</v>
+        <v>3136.55355338245</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>2989.66360588454</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="H37" t="n">
-        <v>192.886711630049</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J37" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="U37" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="V37" t="n">
-        <v>1956.343466104704</v>
+        <v>4523.367234213833</v>
       </c>
       <c r="W37" t="n">
-        <v>1751.093193329805</v>
+        <v>4233.950064176873</v>
       </c>
       <c r="X37" t="n">
-        <v>1523.103642431788</v>
+        <v>4005.960513278856</v>
       </c>
       <c r="Y37" t="n">
-        <v>1302.311063288258</v>
+        <v>3785.167934135326</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7175,22 +7177,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1014.851249206414</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1465.885462454823</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M38" t="n">
-        <v>1999.417367126748</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353394</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188665</v>
@@ -7208,16 +7210,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.540472347267</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C40" t="n">
-        <v>874.540472347267</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D40" t="n">
-        <v>801.6097761177758</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E40" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839441</v>
@@ -7354,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1737.059203485665</v>
       </c>
       <c r="V40" t="n">
-        <v>1163.957642384228</v>
+        <v>1482.374715279778</v>
       </c>
       <c r="W40" t="n">
-        <v>874.540472347267</v>
+        <v>1192.957545242817</v>
       </c>
       <c r="X40" t="n">
-        <v>874.540472347267</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y40" t="n">
-        <v>874.540472347267</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1774.969111598456</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>1406.006594658045</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1047.740896051294</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>661.9526434530499</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993392</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>2866.097597267229</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>2535.034709923658</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>2535.034709923658</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>2161.568951662578</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2161.568951662578</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1702.096133556938</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>1527.643104275811</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>1378.708694614559</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>1219.471239609104</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>1072.936681635989</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>936.573581468607</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>846.0716871064745</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>827.0643955080125</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>920.7416649986299</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>1159.005863978977</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>1525.704024291642</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
-        <v>1972.980349513958</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>2446.503393068413</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2857.464672486467</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>3167.96426396257</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>3325.60582160917</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>3325.461468201686</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>3196.023581695166</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>3003.380581373021</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2775.312734507437</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
-        <v>2540.160626275694</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>2285.923269547493</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>2078.07176934196</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1870.311470577006</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>1065.916699328917</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959802</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1735.608663915319</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.608663915319</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V43" t="n">
-        <v>1735.608663915319</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="W43" t="n">
-        <v>1722.044275313594</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.054724415577</v>
+        <v>1247.565164159156</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>1247.565164159156</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1295.236214140706</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>926.2736972002947</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>568.0079985935442</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>182.2197459953</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>182.2197459953</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218343</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>451.8458144277741</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>1106.569146563075</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1557.603359811486</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>2091.135264483413</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2637.914081542198</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>3482.142110232727</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>4195.497197679675</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>4653.975400188664</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520489</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794325</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450754</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.97538618064</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>2071.97538618064</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>1681.836054204828</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>970.5927724973193</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>796.1397432161923</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>647.205333554941</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>487.9678785494856</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>341.4333205763705</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>205.0702204089886</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>114.5683260468562</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>189.2383039389999</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>427.5025029193483</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>794.2006632320152</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.476988454333</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008789</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.961311426846</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.46090290295</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1926.656506942678</v>
+        <v>3441.564240456396</v>
       </c>
       <c r="C46" t="n">
-        <v>1926.656506942678</v>
+        <v>3441.564240456396</v>
       </c>
       <c r="D46" t="n">
-        <v>1926.656506942678</v>
+        <v>3291.44760104406</v>
       </c>
       <c r="E46" t="n">
-        <v>1778.743413360285</v>
+        <v>3291.44760104406</v>
       </c>
       <c r="F46" t="n">
-        <v>1778.743413360285</v>
+        <v>3291.44760104406</v>
       </c>
       <c r="G46" t="n">
-        <v>1611.040576735004</v>
+        <v>3160.812154727202</v>
       </c>
       <c r="H46" t="n">
-        <v>1464.823389952862</v>
+        <v>3014.59496794506</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.823389952862</v>
+        <v>2917.269290763405</v>
       </c>
       <c r="J46" t="n">
-        <v>1509.946022399798</v>
+        <v>2962.391923210342</v>
       </c>
       <c r="K46" t="n">
-        <v>1713.933205348674</v>
+        <v>3166.379106159219</v>
       </c>
       <c r="L46" t="n">
-        <v>2030.49300379717</v>
+        <v>3482.938904607716</v>
       </c>
       <c r="M46" t="n">
-        <v>2374.650049396719</v>
+        <v>3827.095950207266</v>
       </c>
       <c r="N46" t="n">
-        <v>2716.058426102584</v>
+        <v>4168.504326913131</v>
       </c>
       <c r="O46" t="n">
-        <v>3015.388025022997</v>
+        <v>4467.833925833545</v>
       </c>
       <c r="P46" t="n">
-        <v>3247.995525456657</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R46" t="n">
-        <v>3235.775364366699</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S46" t="n">
-        <v>3044.089480193526</v>
+        <v>4496.535381004074</v>
       </c>
       <c r="T46" t="n">
-        <v>2822.322864763052</v>
+        <v>4274.7687655736</v>
       </c>
       <c r="U46" t="n">
-        <v>2533.219997888695</v>
+        <v>3985.665898699243</v>
       </c>
       <c r="V46" t="n">
-        <v>2278.535509682808</v>
+        <v>3730.981410493357</v>
       </c>
       <c r="W46" t="n">
-        <v>1989.118339645848</v>
+        <v>3441.564240456396</v>
       </c>
       <c r="X46" t="n">
-        <v>1926.656506942678</v>
+        <v>3441.564240456396</v>
       </c>
       <c r="Y46" t="n">
-        <v>1926.656506942678</v>
+        <v>3441.564240456396</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8307,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783517</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8471,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747115</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8702,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8930,16 +8932,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>241.9338129178262</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>260.9678829613746</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>246.454569480845</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>29.61882225792002</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>170.1140909277306</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9887,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10112,19 +10114,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,16 +10363,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>103.7862464855135</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.2173930448423</v>
+        <v>136.249989997129</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10823,25 +10825,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>231.5010718068634</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>11.64153443578698</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11063,16 +11065,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>67.53663776704173</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11309,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>344.7025836476666</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>49.38648674473814</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>21.59472895491405</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.79884012459054</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>71.53531238197252</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>150.9524131429598</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23938,22 +23940,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>120.3433971668336</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24187,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X22" t="n">
-        <v>83.3252282894417</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24379,7 +24381,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>127.5970706990773</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.59472895491459</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>48.93987327667872</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>69.34270184147189</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>155.6308914313327</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>69.34270184147189</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -25135,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>49.56663538533365</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>94.35543628911073</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>76.41408375101605</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25637,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>269.8885794174331</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>54.19844013781065</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25840,19 +25842,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>273.0942536208836</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>296.3711723859681</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>36.69671640533863</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>163.8724410128994</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>788562.9353882041</v>
+        <v>937585.9195853753</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>788562.9353882041</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>937585.9195853752</v>
+        <v>937585.9195853753</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>937585.9195853752</v>
+        <v>937585.9195853753</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>937585.9195853753</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>937585.9195853753</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>937585.9195853753</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>788562.9353882041</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>788562.9353882041</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185699</v>
+      </c>
+      <c r="C2" t="n">
+        <v>492625.0619185698</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.0619185696</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.0619185698</v>
-      </c>
       <c r="E2" t="n">
-        <v>409196.5187651048</v>
+        <v>476498.1442643798</v>
       </c>
       <c r="F2" t="n">
-        <v>409196.5187651046</v>
+        <v>476498.14426438</v>
       </c>
       <c r="G2" t="n">
         <v>476498.1442643797</v>
       </c>
       <c r="H2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643797</v>
       </c>
       <c r="I2" t="n">
-        <v>476498.1442643797</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="J2" t="n">
         <v>476498.1442643799</v>
       </c>
       <c r="K2" t="n">
+        <v>476498.1442643797</v>
+      </c>
+      <c r="L2" t="n">
         <v>476498.1442643799</v>
       </c>
-      <c r="L2" t="n">
-        <v>476498.1442643798</v>
-      </c>
       <c r="M2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="N2" t="n">
         <v>476498.1442643797</v>
       </c>
       <c r="O2" t="n">
-        <v>409196.5187651047</v>
+        <v>476498.1442643798</v>
       </c>
       <c r="P2" t="n">
-        <v>409196.5187651048</v>
+        <v>476498.1442643799</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>618960.3159503533</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99523.40868091492</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39153.48277254658</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.270016921102069e-09</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>4890.851381993015</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="F4" t="n">
-        <v>4890.851381993001</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="J4" t="n">
         <v>25090.72367499381</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25090.72367499381</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25090.72367499381</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25090.72367499382</v>
       </c>
       <c r="K4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="M4" t="n">
         <v>25090.7236749938</v>
       </c>
       <c r="N4" t="n">
+        <v>25090.72367499379</v>
+      </c>
+      <c r="O4" t="n">
         <v>25090.7236749938</v>
       </c>
-      <c r="O4" t="n">
-        <v>4890.851381993015</v>
-      </c>
       <c r="P4" t="n">
-        <v>4890.851381993015</v>
+        <v>25090.72367499358</v>
       </c>
     </row>
     <row r="5">
@@ -26470,28 +26472,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26506,10 +26508,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>96383.51825371372</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-381266.4012871155</v>
+        <v>-381266.4012871156</v>
       </c>
       <c r="C6" t="n">
-        <v>208701.4779274287</v>
+        <v>208701.4779274289</v>
       </c>
       <c r="D6" t="n">
-        <v>208701.4779274288</v>
+        <v>208701.477927429</v>
       </c>
       <c r="E6" t="n">
-        <v>-288960.9891286348</v>
+        <v>-372353.5116577343</v>
       </c>
       <c r="F6" t="n">
-        <v>329999.3268217184</v>
+        <v>355023.9023356725</v>
       </c>
       <c r="G6" t="n">
-        <v>255500.4936547574</v>
+        <v>355023.9023356722</v>
       </c>
       <c r="H6" t="n">
+        <v>355023.9023356722</v>
+      </c>
+      <c r="I6" t="n">
         <v>355023.9023356724</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>178600.6831430795</v>
+      </c>
+      <c r="K6" t="n">
         <v>355023.9023356723</v>
-      </c>
-      <c r="J6" t="n">
-        <v>178600.6831430794</v>
-      </c>
-      <c r="K6" t="n">
-        <v>355023.9023356724</v>
       </c>
       <c r="L6" t="n">
         <v>355023.9023356724</v>
       </c>
       <c r="M6" t="n">
-        <v>315870.4195631258</v>
+        <v>225381.5874967277</v>
       </c>
       <c r="N6" t="n">
         <v>355023.9023356723</v>
       </c>
       <c r="O6" t="n">
-        <v>329999.3268217184</v>
+        <v>355023.9023356724</v>
       </c>
       <c r="P6" t="n">
-        <v>329999.3268217185</v>
+        <v>355023.9023356703</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593302</v>
       </c>
     </row>
     <row r="4">
@@ -26790,16 +26792,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26826,10 +26828,10 @@
         <v>1194.51293060493</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>1194.51293060493</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-12</v>
       </c>
     </row>
     <row r="4">
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1141826477367</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>363.1114752026375</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477367</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477367</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>363.1114752026375</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>50.87556506963472</v>
       </c>
       <c r="C2" t="n">
-        <v>302.9145696239313</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4.37167467057823</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>54.46536296681865</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>131.7978163720836</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>206.5828674239354</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>4.371674670577988</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>6.291412538123694</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>328.5182178210287</v>
       </c>
       <c r="H8" t="n">
-        <v>121.8639673834099</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>160.1019597334526</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>11.96618320970902</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31279,46 +31281,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,28 +31457,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32075,7 +32077,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33263,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33278,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33518,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33734,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -34211,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681611</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844682</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974805</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054954</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003827</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623216</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490575019</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095048</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099083</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746433</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781704</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563578</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806982</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451126</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345289</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502574</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798538</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752282</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026319</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353169</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138812</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233493</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837943</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970268</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002941</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987496</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905546</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.5396634623833</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898528</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.154213684046222</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430544</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311885</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742037</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297395</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702031</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098829</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316442</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883125</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.768002308601</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802177</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895886</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712242</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553047</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780298</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.997506289869</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
@@ -35422,16 +35424,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35668,7 +35670,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35881,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>697.5239273101583</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>769.0208838495937</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>798.7564048937564</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>89.2320208001448</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36595,10 +36597,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>507.3053774831311</v>
+        <v>470.4443441954251</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36607,7 +36609,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,19 +36834,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36911,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36926,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37081,16 +37083,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>502.5482327048853</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>427.0116978485618</v>
+        <v>387.0442948008485</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37543,25 +37545,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>568.6923583622639</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>563.9433698486985</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37783,16 +37785,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>575.5896386552608</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37801,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407875</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265669</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923343</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302292</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412914</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845358881</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908565</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636256</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152081</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453596518</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609579</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134007</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901331</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.306104600461</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525824</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859639</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127281</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306668</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443203</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170199</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934848</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675411</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226406</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451112</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789417</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1408462.206579772</v>
+        <v>1402740.594611886</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836241</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.882709509</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>331.8582765938459</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>318.157743319284</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>164.1192903852761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>200.2931783177761</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>17.6284954155127</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>149.8794763036715</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>325.9393215830108</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>85.26595219976636</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>133.4548648132222</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>111.9811935083357</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>196.9899243971807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1666,7 +1666,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C16" t="n">
-        <v>95.71150871665532</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>87.72089359958927</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2022,7 +2022,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>69.42562816460828</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>127.5688685082641</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -2259,7 +2259,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>17.15794421524345</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>163.689844124971</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,19 +2769,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.2419515106229</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>11.61592966729513</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2967,10 +2967,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>71.92708888544222</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>43.42483681571056</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>236.9563629512573</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>71.6703719699175</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>70.82764119510642</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.921725653453</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>217.0914199928484</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>113.0483809608172</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873203</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292541</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881755</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851108</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247718</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734093657</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414545</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>129.3290918536896</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143207</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983792</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004706</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314418</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>27.59447922321743</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1954.141365880777</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C2" t="n">
-        <v>1954.141365880777</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2289.351746278601</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>2289.351746278601</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>532.9350040648279</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>532.9350040648279</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D4" t="n">
-        <v>382.8183646524922</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E4" t="n">
-        <v>382.8183646524922</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545818</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>532.9350040648279</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1154.883827626212</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C5" t="n">
-        <v>1154.883827626212</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>1154.883827626212</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>1154.883827626212</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2679.342529992452</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2425.580744630543</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.883827626212</v>
+        <v>1704.378525311161</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4652,13 +4652,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>500.1394333084169</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>500.1394333084169</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>352.2263397260238</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>205.3363922281134</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>205.3363922281134</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4767,10 +4767,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1448.576038264086</v>
+        <v>808.0839286340183</v>
       </c>
       <c r="C8" t="n">
-        <v>1448.576038264086</v>
+        <v>808.0839286340183</v>
       </c>
       <c r="D8" t="n">
-        <v>1090.310339657335</v>
+        <v>808.0839286340183</v>
       </c>
       <c r="E8" t="n">
-        <v>704.5220870590908</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>293.5361822694833</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>2311.057514205146</v>
       </c>
       <c r="W8" t="n">
-        <v>2212.181128500977</v>
+        <v>1958.288858935032</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.715370239897</v>
+        <v>1584.823100673952</v>
       </c>
       <c r="Y8" t="n">
-        <v>1448.576038264086</v>
+        <v>1194.68376869814</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.745875571094</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C10" t="n">
-        <v>188.745875571094</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>188.745875571094</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>188.745875571094</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>598.044640063212</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146241</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V10" t="n">
-        <v>409.5384547146241</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W10" t="n">
-        <v>409.5384547146241</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X10" t="n">
-        <v>409.5384547146241</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y10" t="n">
-        <v>188.745875571094</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="11">
@@ -5035,34 +5035,34 @@
         <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089883</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468559</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5135,34 +5135,34 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y12" t="n">
         <v>1138.808109517387</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>192.8867116300491</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C13" t="n">
-        <v>192.8867116300491</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="D13" t="n">
-        <v>192.8867116300491</v>
+        <v>523.2661352466724</v>
       </c>
       <c r="E13" t="n">
-        <v>192.8867116300491</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X13" t="n">
-        <v>391.866433243363</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.8867116300491</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="14">
@@ -5257,13 +5257,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
@@ -5293,13 +5293,13 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5317,7 +5317,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5360,10 +5360,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>506.832110204571</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>909.2731541783409</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>909.2731541783409</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>688.4805750348107</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,37 +5500,37 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1797.117834600129</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2330.649739272054</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330836</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
         <v>4470.748294107237</v>
@@ -5542,25 +5542,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5594,13 +5594,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5612,22 +5612,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1120.662598458018</v>
+        <v>817.1408434279687</v>
       </c>
       <c r="C19" t="n">
-        <v>951.7264155301116</v>
+        <v>648.2046605000618</v>
       </c>
       <c r="D19" t="n">
-        <v>801.6097761177758</v>
+        <v>498.088021087726</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>498.088021087726</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1886.216568968736</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1664.449953538262</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1375.347086663905</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V19" t="n">
-        <v>1120.662598458018</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W19" t="n">
-        <v>1120.662598458018</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X19" t="n">
-        <v>1120.662598458018</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="Y19" t="n">
-        <v>1120.662598458018</v>
+        <v>998.7893082582084</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5752,28 +5752,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1120.662598458018</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C22" t="n">
-        <v>951.7264155301116</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5940,22 +5940,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U22" t="n">
-        <v>1956.343466104704</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V22" t="n">
-        <v>1956.343466104704</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W22" t="n">
-        <v>1751.093193329805</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X22" t="n">
-        <v>1523.103642431788</v>
+        <v>928.0672628648952</v>
       </c>
       <c r="Y22" t="n">
-        <v>1302.311063288258</v>
+        <v>707.274683721365</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1614.698881814245</v>
       </c>
       <c r="M23" t="n">
-        <v>2782.232616025903</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N23" t="n">
-        <v>3573.001456870722</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6089,7 +6089,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6098,16 +6098,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>391.866433243363</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>391.866433243363</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6211,13 +6211,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6229,16 +6229,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>750.1800661608906</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1614.698881814245</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2593.249184644074</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3573.001456870721</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
@@ -6308,10 +6308,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.662598458018</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C28" t="n">
-        <v>951.7264155301116</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D28" t="n">
-        <v>801.6097761177758</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258584</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1453.060509258584</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1453.060509258584</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>1453.060509258584</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>1302.311063288258</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6442,73 +6442,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3316.966490094645</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>963.4596778203087</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="C31" t="n">
-        <v>951.7264155301116</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6651,22 +6651,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V31" t="n">
-        <v>1701.658977898817</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W31" t="n">
-        <v>1412.241807861856</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X31" t="n">
-        <v>1184.252256963839</v>
+        <v>962.4856415333647</v>
       </c>
       <c r="Y31" t="n">
-        <v>963.4596778203087</v>
+        <v>889.8320163965544</v>
       </c>
     </row>
     <row r="32">
@@ -6691,37 +6691,37 @@
         <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1236.699401366028</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
-        <v>2215.249704195857</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N32" t="n">
-        <v>3195.001976422504</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O32" t="n">
-        <v>3697.97444730184</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>805.0466682503443</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C34" t="n">
-        <v>636.1104853224374</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D34" t="n">
-        <v>485.9938459101016</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E34" t="n">
-        <v>485.9938459101016</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F34" t="n">
-        <v>339.1038984121913</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
@@ -6885,25 +6885,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T34" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U34" t="n">
-        <v>1674.827124689058</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V34" t="n">
-        <v>1674.827124689058</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="W34" t="n">
-        <v>1435.477263122131</v>
+        <v>1287.992971950915</v>
       </c>
       <c r="X34" t="n">
-        <v>1207.487712224114</v>
+        <v>1287.992971950915</v>
       </c>
       <c r="Y34" t="n">
-        <v>986.695133080584</v>
+        <v>1067.200392807385</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2016.310259422546</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2996.062531649192</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3876.027181978647</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4270.801548335825</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188665</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7019,10 +7019,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3603.519469305086</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="C37" t="n">
-        <v>3434.583286377179</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D37" t="n">
-        <v>3284.466646964843</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E37" t="n">
-        <v>3136.55355338245</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F37" t="n">
-        <v>2989.66360588454</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4778.05172241972</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>4778.05172241972</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>4778.05172241972</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>4523.367234213833</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>4233.950064176873</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>4005.960513278856</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>3785.167934135326</v>
+        <v>410.1538185715858</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7180,19 +7180,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2949.638265046256</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3507.942201196468</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075804</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188665</v>
@@ -7210,16 +7210,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>562.5269503710301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>393.5907674431232</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
         <v>95.56103444839441</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1737.059203485665</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1482.374715279778</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>1192.957545242817</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>964.9679943448</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>744.1754152012699</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7411,25 +7411,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4010.914672075804</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188665</v>
@@ -7438,25 +7438,25 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7493,10 +7493,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1065.916699328917</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839441</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.65758193153</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1475.554715057174</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1475.554715057174</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>1475.554715057174</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>1247.565164159156</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1247.565164159156</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7648,28 +7648,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277741</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563075</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811486</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483413</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542198</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232727</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679675</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188664</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,58 +7703,58 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973193</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161923</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.205333554941</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494856</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763705</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089886</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468562</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039389999</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193483</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320152</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454333</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008789</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426846</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.46090290295</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3441.564240456396</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="C46" t="n">
-        <v>3441.564240456396</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="D46" t="n">
-        <v>3291.44760104406</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E46" t="n">
-        <v>3291.44760104406</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F46" t="n">
-        <v>3291.44760104406</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G46" t="n">
-        <v>3160.812154727202</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H46" t="n">
-        <v>3014.59496794506</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.269290763405</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>2962.391923210342</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>3166.379106159219</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>3482.938904607716</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>3827.095950207266</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>4168.504326913131</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>4467.833925833545</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>4496.535381004074</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>4274.7687655736</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>3985.665898699243</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>3730.981410493357</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>3441.564240456396</v>
+        <v>971.2304000842294</v>
       </c>
       <c r="X46" t="n">
-        <v>3441.564240456396</v>
+        <v>743.240849186212</v>
       </c>
       <c r="Y46" t="n">
-        <v>3441.564240456396</v>
+        <v>522.4482700426819</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>67.53663776704263</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>241.9338129178262</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>381.8176570184011</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>246.454569480845</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10114,19 +10114,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>258.6211785616921</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,16 +10363,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>103.7862464855135</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>136.249989997129</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10828,22 +10828,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>11.64153443578698</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>67.53663776704173</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476666</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>34.45276913823342</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.59472895491405</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C16" t="n">
-        <v>71.53531238197252</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>57.70015442334197</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>120.3433971668336</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>52.26311167367322</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24381,10 +24381,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>127.5970706990773</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2.335964134057178</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>69.34270184147189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>155.6308914313327</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>146.6575644666526</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>136.4071433662267</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>49.56663538533365</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>94.35543628911073</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,13 +25362,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>147.7570121569884</v>
       </c>
     </row>
     <row r="38">
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,13 +25599,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>69.12041821276446</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>54.19844013781065</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>36.69671640533863</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>258.9285191133736</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>937585.9195853753</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>937585.9195853752</v>
+        <v>937585.9195853753</v>
       </c>
     </row>
     <row r="14">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
         <v>476498.1442643798</v>
       </c>
       <c r="F2" t="n">
-        <v>476498.14426438</v>
+        <v>476498.1442643798</v>
       </c>
       <c r="G2" t="n">
+        <v>476498.1442643799</v>
+      </c>
+      <c r="H2" t="n">
+        <v>476498.1442643799</v>
+      </c>
+      <c r="I2" t="n">
         <v>476498.1442643797</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>476498.1442643798</v>
+      </c>
+      <c r="K2" t="n">
+        <v>476498.1442643799</v>
+      </c>
+      <c r="L2" t="n">
         <v>476498.1442643797</v>
-      </c>
-      <c r="I2" t="n">
-        <v>476498.1442643799</v>
-      </c>
-      <c r="J2" t="n">
-        <v>476498.1442643799</v>
-      </c>
-      <c r="K2" t="n">
-        <v>476498.1442643797</v>
-      </c>
-      <c r="L2" t="n">
-        <v>476498.1442643799</v>
       </c>
       <c r="M2" t="n">
         <v>476498.1442643799</v>
       </c>
       <c r="N2" t="n">
-        <v>476498.1442643797</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="O2" t="n">
         <v>476498.1442643798</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.270016921102069e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,7 +26426,7 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
         <v>25090.72367499382</v>
@@ -26438,28 +26438,28 @@
         <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="J4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="K4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="L4" t="n">
         <v>25090.72367499381</v>
-      </c>
-      <c r="L4" t="n">
-        <v>25090.7236749938</v>
       </c>
       <c r="M4" t="n">
         <v>25090.7236749938</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="O4" t="n">
         <v>25090.7236749938</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499358</v>
+        <v>25090.7236749938</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26496,7 +26496,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371372</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-381266.4012871156</v>
       </c>
       <c r="C6" t="n">
-        <v>208701.4779274289</v>
+        <v>208701.4779274288</v>
       </c>
       <c r="D6" t="n">
-        <v>208701.477927429</v>
+        <v>208701.4779274287</v>
       </c>
       <c r="E6" t="n">
-        <v>-372353.5116577343</v>
+        <v>-373025.4665599922</v>
       </c>
       <c r="F6" t="n">
-        <v>355023.9023356725</v>
+        <v>354351.9474334143</v>
       </c>
       <c r="G6" t="n">
-        <v>355023.9023356722</v>
+        <v>354351.9474334145</v>
       </c>
       <c r="H6" t="n">
-        <v>355023.9023356722</v>
+        <v>354351.9474334145</v>
       </c>
       <c r="I6" t="n">
-        <v>355023.9023356724</v>
+        <v>354351.9474334143</v>
       </c>
       <c r="J6" t="n">
-        <v>178600.6831430795</v>
+        <v>177928.7282408215</v>
       </c>
       <c r="K6" t="n">
-        <v>355023.9023356723</v>
+        <v>354351.9474334145</v>
       </c>
       <c r="L6" t="n">
-        <v>355023.9023356724</v>
+        <v>354351.9474334143</v>
       </c>
       <c r="M6" t="n">
-        <v>225381.5874967277</v>
+        <v>224709.6325944698</v>
       </c>
       <c r="N6" t="n">
-        <v>355023.9023356723</v>
+        <v>354351.9474334145</v>
       </c>
       <c r="O6" t="n">
-        <v>355023.9023356724</v>
+        <v>354351.9474334145</v>
       </c>
       <c r="P6" t="n">
-        <v>355023.9023356703</v>
+        <v>354351.9474334145</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593302</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.410605131648481e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50.87556506963472</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>47.1151484517236</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>54.46536296681865</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>206.5828674239354</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>198.8198249421451</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>6.291412538123694</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>55.991048489251</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>328.5182178210287</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>11.96618320970902</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629394</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32806,7 +32806,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33280,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33517,10 +33517,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33736,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681611</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844682</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974805</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054954</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003827</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623216</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490575019</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095048</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099083</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746433</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781704</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563578</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806982</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451126</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345289</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502574</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798538</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752282</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026319</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353169</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138812</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233493</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837943</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970268</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002941</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987496</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905546</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.5396634623833</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898528</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.154213684046222</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430544</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311885</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742037</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297395</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702031</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098829</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316442</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883125</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.768002308601</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802177</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895886</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712242</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553047</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780298</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>575.5896386552618</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35670,7 +35670,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>697.5239273101583</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037195</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>837.4077714107333</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>798.7564048937564</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
@@ -36454,7 +36454,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36597,7 +36597,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>470.4443441954251</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
@@ -36609,7 +36609,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,19 +36834,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>766.6741794499112</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36928,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37083,16 +37083,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>502.5482327048853</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>387.0442948008485</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,22 +37548,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>563.9433698486985</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>575.5896386552608</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407875</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265669</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923343</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302292</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412914</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845358881</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908565</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636256</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152081</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453596518</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609579</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.402182134007</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901331</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.306104600461</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525824</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859639</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127281</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306668</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443203</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.757372170199</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934848</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675411</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226406</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451112</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789417</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1402740.594611886</v>
+        <v>1406146.085736335</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>318.157743319284</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>295.568361330683</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>14.46389722690833</v>
+        <v>43.31785343913998</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>17.6284954155127</v>
+        <v>206.1953299242026</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>325.9393215830108</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>66.58496257157202</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>111.9811935083357</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>118.1526300173707</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.689844124971</v>
+        <v>17.25588147840188</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>87.72089359958927</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>163.6898441249715</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>127.5688685082641</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>77.31354443380484</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2535,16 +2535,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>34.94291362793656</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>63.76080479645152</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>163.689844124971</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>79.49505480544774</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>71.92708888544222</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.42483681571056</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>187.4330611973848</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,10 +3441,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>159.2671067614329</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>70.82764119510642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>136.0325688578954</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>129.2418567859524</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>27.59447922321743</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549.649320534154</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>228.2778626358874</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>923.9266662611112</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4372,10 +4372,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4424,16 +4424,16 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C4" t="n">
-        <v>713.5189870075369</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1317.778685247039</v>
+        <v>1282.700798147047</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.778685247039</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
         <v>548.527081850681</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2679.342529992452</v>
+        <v>2257.664802828338</v>
       </c>
       <c r="U5" t="n">
-        <v>2425.580744630543</v>
+        <v>2003.903017466429</v>
       </c>
       <c r="V5" t="n">
-        <v>2094.517857286973</v>
+        <v>1672.840130122858</v>
       </c>
       <c r="W5" t="n">
-        <v>2094.517857286973</v>
+        <v>1672.840130122858</v>
       </c>
       <c r="X5" t="n">
-        <v>2094.517857286973</v>
+        <v>1672.840130122858</v>
       </c>
       <c r="Y5" t="n">
-        <v>1704.378525311161</v>
+        <v>1282.700798147047</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4652,13 +4652,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340183</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C8" t="n">
-        <v>808.0839286340183</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D8" t="n">
-        <v>808.0839286340183</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>135.1239238328564</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>121.2005197714473</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>121.2005197714473</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205146</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935032</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673952</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.68376869814</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036447</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036447</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036447</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036447</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036447</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036447</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="11">
@@ -5020,49 +5020,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1237.706702364128</v>
+        <v>1732.058578925876</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193957</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5071,16 +5071,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089883</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468559</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5135,34 +5135,34 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
         <v>1138.808109517387</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>673.3827746590082</v>
+        <v>873.220281864028</v>
       </c>
       <c r="C13" t="n">
-        <v>673.3827746590082</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D13" t="n">
-        <v>523.2661352466724</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715858</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5226,25 +5226,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1645.311491004893</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593986</v>
+        <v>1390.627002799006</v>
       </c>
       <c r="W13" t="n">
-        <v>901.3723255570255</v>
+        <v>1101.209832762045</v>
       </c>
       <c r="X13" t="n">
-        <v>673.3827746590082</v>
+        <v>873.220281864028</v>
       </c>
       <c r="Y13" t="n">
-        <v>673.3827746590082</v>
+        <v>873.220281864028</v>
       </c>
     </row>
     <row r="14">
@@ -5266,40 +5266,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
@@ -5357,13 +5357,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E16" t="n">
         <v>95.56103444839442</v>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,13 +5500,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089256</v>
@@ -5515,52 +5515,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5600,46 +5600,46 @@
         <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>817.1408434279687</v>
+        <v>260.904311342305</v>
       </c>
       <c r="C19" t="n">
-        <v>648.2046605000618</v>
+        <v>260.904311342305</v>
       </c>
       <c r="D19" t="n">
-        <v>498.088021087726</v>
+        <v>260.904311342305</v>
       </c>
       <c r="E19" t="n">
-        <v>498.088021087726</v>
+        <v>260.904311342305</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>260.904311342305</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5676,16 +5676,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O19" t="n">
         <v>1646.12566951853</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T19" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.890966501056</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V19" t="n">
-        <v>1288.206478295169</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W19" t="n">
-        <v>998.7893082582084</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X19" t="n">
-        <v>998.7893082582084</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.7893082582084</v>
+        <v>260.904311342305</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>818.2062848686776</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1682.725100522032</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5782,16 +5782,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>578.4172407837245</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C22" t="n">
-        <v>409.4810578558177</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D22" t="n">
-        <v>409.4810578558177</v>
+        <v>173.65552377547</v>
       </c>
       <c r="E22" t="n">
-        <v>409.4810578558177</v>
+        <v>173.65552377547</v>
       </c>
       <c r="F22" t="n">
-        <v>409.4810578558177</v>
+        <v>173.65552377547</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5940,22 +5940,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V22" t="n">
-        <v>1445.473983799873</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W22" t="n">
-        <v>1156.056813762912</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X22" t="n">
-        <v>928.0672628648952</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y22" t="n">
-        <v>707.274683721365</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="23">
@@ -5968,22 +5968,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5992,43 +5992,43 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1614.698881814245</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2593.249184644074</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3573.001456870721</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E24" t="n">
         <v>487.9678785494859</v>
@@ -6059,7 +6059,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>657.5961351655762</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>657.5961351655762</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858347</v>
+        <v>874.540472347267</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.9043113423046</v>
+        <v>839.244599995816</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6232,13 +6232,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
@@ -6308,10 +6308,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>260.9043113423046</v>
+        <v>789.7120416113839</v>
       </c>
       <c r="C28" t="n">
-        <v>260.9043113423046</v>
+        <v>620.7758586834771</v>
       </c>
       <c r="D28" t="n">
-        <v>260.9043113423046</v>
+        <v>620.7758586834771</v>
       </c>
       <c r="E28" t="n">
-        <v>260.9043113423046</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F28" t="n">
-        <v>260.9043113423046</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839441</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858347</v>
+        <v>1192.153085585154</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423046</v>
+        <v>971.3605064416237</v>
       </c>
     </row>
     <row r="29">
@@ -6454,46 +6454,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1034.340101969333</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>708.1835515663147</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C31" t="n">
-        <v>708.1835515663147</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D31" t="n">
-        <v>558.0669121539789</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6651,22 +6651,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1876.045430947686</v>
       </c>
       <c r="U31" t="n">
-        <v>1734.57685067423</v>
+        <v>1586.942564073329</v>
       </c>
       <c r="V31" t="n">
-        <v>1479.892362468343</v>
+        <v>1332.258075867442</v>
       </c>
       <c r="W31" t="n">
-        <v>1190.475192431382</v>
+        <v>1042.840905830482</v>
       </c>
       <c r="X31" t="n">
-        <v>962.4856415333647</v>
+        <v>814.8513549324643</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.8320163965544</v>
+        <v>594.0587757889342</v>
       </c>
     </row>
     <row r="32">
@@ -6679,19 +6679,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6706,7 +6706,7 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
         <v>2216.257005193956</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1023.336921276364</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C34" t="n">
-        <v>854.4007383484569</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D34" t="n">
-        <v>704.2840989361212</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
-        <v>556.371005353728</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839441</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862232</v>
+        <v>1767.017141662901</v>
       </c>
       <c r="T34" t="n">
-        <v>1866.513008862232</v>
+        <v>1545.250526232427</v>
       </c>
       <c r="U34" t="n">
-        <v>1577.410141987875</v>
+        <v>1256.147659358071</v>
       </c>
       <c r="V34" t="n">
-        <v>1577.410141987875</v>
+        <v>1001.463171152184</v>
       </c>
       <c r="W34" t="n">
-        <v>1287.992971950915</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X34" t="n">
-        <v>1287.992971950915</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y34" t="n">
-        <v>1067.200392807385</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="35">
@@ -6916,16 +6916,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6934,7 +6934,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
@@ -6952,34 +6952,34 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
         <v>2760.816196754298</v>
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>410.1538185715858</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="C37" t="n">
-        <v>410.1538185715858</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="D37" t="n">
-        <v>410.1538185715858</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E37" t="n">
-        <v>410.1538185715858</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1795.467600689115</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1573.700985258641</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1573.700985258641</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>1319.016497052754</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838521</v>
+        <v>1029.599327015793</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858347</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="Y37" t="n">
-        <v>410.1538185715858</v>
+        <v>801.6097761177758</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,19 +7159,19 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>451.8458144277729</v>
@@ -7189,37 +7189,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839441</v>
+        <v>401.9038525862967</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839441</v>
+        <v>232.9676696583898</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1780.96276986786</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T40" t="n">
-        <v>1559.196154437386</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>583.5523174165364</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839441</v>
+        <v>710.660477670796</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839441</v>
+        <v>541.7242947428891</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.196154437386</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>710.660477670796</v>
       </c>
     </row>
     <row r="44">
@@ -7654,13 +7654,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232731</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>340.7998052124422</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>340.7998052124422</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>340.7998052124422</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839441</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>971.2304000842294</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X46" t="n">
-        <v>743.240849186212</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y46" t="n">
-        <v>522.4482700426819</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
   </sheetData>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>170.1140909277306</v>
+        <v>176.2173930448433</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>219.3344627260162</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476831</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>201.9664098701124</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>344.7025836476839</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,28 +9640,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>381.8176570184011</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>251.1867816683973</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,10 +10354,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>201.9664098701116</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>34.45276913823342</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23466,13 +23466,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>168.0592081882422</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.14213605696625</v>
+        <v>162.5760987035354</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>57.70015442334197</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.335964134056724</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.26311167367322</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>88.71226382522339</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24180,13 +24180,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>183.6417397241582</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>82.67315785011765</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.335964134057178</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24891,10 +24891,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>140.0538944707214</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>146.6575644666526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>136.4071433662267</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>2.335964134057093</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>30.501918570009</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>147.7570121569884</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>12.58290416031696</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>19.37361623225999</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>258.9285191133736</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>937585.9195853753</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>937585.9195853752</v>
+        <v>937585.9195853753</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>937585.9195853753</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>937585.9195853752</v>
+        <v>937585.9195853753</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>937585.9195853753</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>937585.9195853753</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>937585.9195853752</v>
+        <v>937585.9195853753</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>937585.9195853753</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="14">
@@ -26319,16 +26319,16 @@
         <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.14426438</v>
       </c>
       <c r="F2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643797</v>
       </c>
       <c r="G2" t="n">
-        <v>476498.1442643799</v>
+        <v>476498.14426438</v>
       </c>
       <c r="H2" t="n">
         <v>476498.1442643799</v>
@@ -26337,25 +26337,25 @@
         <v>476498.1442643797</v>
       </c>
       <c r="J2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643797</v>
       </c>
       <c r="K2" t="n">
         <v>476498.1442643799</v>
       </c>
       <c r="L2" t="n">
+        <v>476498.1442643799</v>
+      </c>
+      <c r="M2" t="n">
         <v>476498.1442643797</v>
-      </c>
-      <c r="M2" t="n">
-        <v>476498.1442643799</v>
       </c>
       <c r="N2" t="n">
         <v>476498.1442643799</v>
       </c>
       <c r="O2" t="n">
+        <v>476498.1442643799</v>
+      </c>
+      <c r="P2" t="n">
         <v>476498.1442643798</v>
-      </c>
-      <c r="P2" t="n">
-        <v>476498.1442643799</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,31 +26432,31 @@
         <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="H4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="L4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="P4" t="n">
         <v>25090.7236749938</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26496,19 +26496,19 @@
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-381266.4012871156</v>
+        <v>-381266.4012871158</v>
       </c>
       <c r="C6" t="n">
-        <v>208701.4779274288</v>
+        <v>208701.4779274289</v>
       </c>
       <c r="D6" t="n">
-        <v>208701.4779274287</v>
+        <v>208701.4779274289</v>
       </c>
       <c r="E6" t="n">
-        <v>-373025.4665599922</v>
+        <v>-372420.70714796</v>
       </c>
       <c r="F6" t="n">
-        <v>354351.9474334143</v>
+        <v>354956.7068454464</v>
       </c>
       <c r="G6" t="n">
-        <v>354351.9474334145</v>
+        <v>354956.7068454466</v>
       </c>
       <c r="H6" t="n">
-        <v>354351.9474334145</v>
+        <v>354956.7068454467</v>
       </c>
       <c r="I6" t="n">
-        <v>354351.9474334143</v>
+        <v>354956.7068454464</v>
       </c>
       <c r="J6" t="n">
-        <v>177928.7282408215</v>
+        <v>178533.4876528536</v>
       </c>
       <c r="K6" t="n">
-        <v>354351.9474334145</v>
+        <v>354956.7068454466</v>
       </c>
       <c r="L6" t="n">
-        <v>354351.9474334143</v>
+        <v>354956.7068454466</v>
       </c>
       <c r="M6" t="n">
-        <v>224709.6325944698</v>
+        <v>225314.3920065016</v>
       </c>
       <c r="N6" t="n">
-        <v>354351.9474334145</v>
+        <v>354956.7068454466</v>
       </c>
       <c r="O6" t="n">
-        <v>354351.9474334145</v>
+        <v>354956.7068454465</v>
       </c>
       <c r="P6" t="n">
-        <v>354351.9474334145</v>
+        <v>354956.7068454466</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26752,7 +26752,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>47.1151484517236</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>111.3076844110284</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>152.7829238717195</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>198.8198249421451</v>
+        <v>10.25299043345515</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>208.819789884688</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>55.991048489251</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>85.34635367328923</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28064,22 +28064,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>96.25160475629394</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8578157762261</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32806,7 +32806,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33517,10 +33517,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7042053200628</v>
+        <v>631.8075074371754</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>771.6362981389277</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359025</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>539.1576964255129</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>883.6236994779107</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>837.4077714107333</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36600,7 +36600,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36609,7 +36609,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>588.3780682237978</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,10 +37074,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>740.8875257003384</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
@@ -37165,10 +37165,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37329,7 +37329,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38031,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
